--- a/DateBase/orders/Dang Nguyen_2025-9-6.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-6.xlsx
@@ -1039,6 +1039,9 @@
       <c r="C71" t="str">
         <v>578_腊梅粉_wax pink_undefined_1bunch</v>
       </c>
+      <c r="F71" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1100,7 +1103,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015105151055161510102055587101061091015106510101055105205102010551055131571010101051056111010535555552020100</v>
+        <v>015105151055161510102055587101061091015106510101055105205102010551055131571010101051056111010535555552020101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-6.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-6.xlsx
@@ -1040,7 +1040,7 @@
         <v>578_腊梅粉_wax pink_undefined_1bunch</v>
       </c>
       <c r="F71" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1103,7 +1103,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015105151055161510102055587101061091015106510101055105205102010551055131571010101051056111010535555552020101</v>
+        <v>0151051510551615101020555871010610910151065101010551052051020105510551315710101010510561110105355555520201010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-6.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-6.xlsx
@@ -1105,6 +1105,9 @@
       <c r="G2" t="str">
         <v>0151051510551615101020555871010610910151065101010551052051020105510551315710101010510561110105355555520201010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
